--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_amgoat_2_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_amgoat_2_1.xlsx
@@ -1676,7 +1676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eyjafjalla"]  “Why did mom and dad choose this path?” “Why did mom and dad have to die?”
+    <t xml:space="preserve">[name="Eyjafjalla"]  'Why did mom and dad choose this path?' 'Why did mom and dad have to die?'
 </t>
   </si>
   <si>
@@ -2016,7 +2016,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">그냥 돌보기란 하란 건 아닙니다. 그녀의 광석병은 이미 상당히 위험한 정도로 퍼졌다고 합니다……
+    <t xml:space="preserve">그냥 돌보기만 하란 건 아닙니다. 그녀의 광석병은 이미 상당히 위험한 정도로 퍼졌다고 합니다……
 </t>
   </si>
   <si>
@@ -2048,7 +2048,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="오퍼레이터 발티"]  (작은 소리로) 요즘은 연구 기구도 이렇게 양심이 없는 건가?
+    <t xml:space="preserve">[name="오퍼레이터 발티"]  (작은 목소리로) 요즘은 연구 기구도 이렇게 양심이 없는 건가?
 </t>
   </si>
   <si>
@@ -2156,7 +2156,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="에이야퍄들라"]  비슷한 얘기를……당시에도 들은 것 같아요.
+    <t xml:space="preserve">[name="에이야퍄들라"]  비슷한 얘기를…… 당시에도 들었던 것 같아요.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_amgoat_2_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_amgoat_2_1.xlsx
@@ -1260,7 +1260,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">4:32 PM \ Overcast
+    <t xml:space="preserve">4:32 P.M. \ Overcast
 </t>
   </si>
   <si>
@@ -2232,7 +2232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="에이야퍄들라"]  아빠랑 엄마가 너무 보고 싶어요. 두 분의 사고 소식을 들었을 때, 그게 진짜라고 믿고 싶지 않았어요.
+    <t xml:space="preserve">[name="에이야퍄들라"]  아빠랑 엄마가 너무 보고싶어요. 두 분의 사고 소식을 들었을 때, 그게 진짜라고 믿고 싶지 않았어요.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_amgoat_2_1.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_amgoat_2_1.xlsx
@@ -1012,7 +1012,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="エイヤフィヤトラ"]  あれから数日の夜、私はいつも意識が混沌したまま眠りについていました。でも夢の中で想像してた火山を見て、泣き喚きながら目を覚ますんです……バティさんの言うほど、私はすごくないんです。
+    <t xml:space="preserve">[name="エイヤフィヤトラ"]  あれから数日の夜、私は意識が混濁していてずっと眠りについていました。でも夢の中で想像してた火山を見て、泣き喚きながら目を覚ますんです……バティさんの言うほど、私はすごくないんです。
 </t>
   </si>
   <si>
@@ -1056,7 +1056,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="エイヤフィヤトラ"]  たとえ私が病気なんかしてなかったとしても……もっと長い一生があるとしても、その全部を研究に費やしたとしても、目の前の巨大なモンスターのことを、どれだけ知ることができるでしょう？
+    <t xml:space="preserve">[name="エイヤフィヤトラ"]  たとえ私が病気でなかったとして……もっと長い一生があるものだとして、その全部を研究に費やしたとして、そうだとして目の前の巨大なモンスターのことを、どれだけ知ることができるでしょう？
 </t>
   </si>
   <si>
@@ -1876,7 +1876,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">라이타니아 북부 황야, 화산지대 7호 샘플링 포인트
+    <t xml:space="preserve">라이타니엔 북부 황야, 화산지대 7호 샘플링 포인트
 </t>
   </si>
   <si>
